--- a/data/n2v/tables/model-1-1325-20230829-37.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-37.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
